--- a/BackTest/2020-01-26 BackTest IPX.xlsx
+++ b/BackTest/2020-01-26 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -9460,7 +9460,7 @@
         <v>38552.68589999998</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>142633.1965</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>259507.6143</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>266285.4351999999</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>264291.7190999999</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>265937.9377</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>162962.6193999999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>164014.8302999999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>176365.0323999999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>176365.0323999999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>173583.7438999999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>173583.7438999999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>174948.5635999999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>161359.6008999999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>138225.3954999999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>117639.0126999999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>62351.5340999999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>51703.5335999999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>16092.3795999999</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>16092.3795999999</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>15413.9987999999</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>14507.4877999999</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>2013.148099999897</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>13296.0539999999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>13296.0539999999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>13296.0539999999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>14889.9540999999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>14889.9540999999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>14889.9540999999</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>14889.9540999999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>14889.9540999999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>16984.8991999999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>16984.8991999999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -17512,10 +17512,14 @@
         <v>-554534.3402720971</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="J519" t="n">
+        <v>56.98</v>
+      </c>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
@@ -17545,11 +17549,19 @@
         <v>-552016.9221720971</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="J520" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17590,19 @@
         <v>-554367.3852720972</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="J521" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17631,19 @@
         <v>-556661.9776720972</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>57</v>
+      </c>
+      <c r="J522" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +17672,19 @@
         <v>-580240.4910720972</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="J523" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +17713,19 @@
         <v>-580240.4910720972</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>56.86</v>
+      </c>
+      <c r="J524" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17754,19 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>56.86</v>
+      </c>
+      <c r="J525" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +17795,19 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>56.87</v>
+      </c>
+      <c r="J526" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +17836,19 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>56.87</v>
+      </c>
+      <c r="J527" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +17877,19 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>56.87</v>
+      </c>
+      <c r="J528" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +17918,19 @@
         <v>-578703.5692720972</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>56.87</v>
+      </c>
+      <c r="J529" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,15 +17959,19 @@
         <v>-577469.5339720972</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>56.86</v>
       </c>
       <c r="J530" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="K530" t="inlineStr"/>
+        <v>56.98</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,15 +18000,17 @@
         <v>-577469.5339720972</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>56.88</v>
+      </c>
       <c r="J531" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L531" t="n">
@@ -17951,17 +18041,17 @@
         <v>-577469.5339720972</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>56.88</v>
       </c>
       <c r="J532" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L532" t="n">
@@ -17992,17 +18082,17 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>56.88</v>
       </c>
       <c r="J533" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L533" t="n">
@@ -18033,13 +18123,13 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>56.89</v>
       </c>
       <c r="J534" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18074,13 +18164,13 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>56.89</v>
       </c>
       <c r="J535" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18115,13 +18205,13 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>56.89</v>
       </c>
       <c r="J536" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18156,13 +18246,13 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>56.89</v>
       </c>
       <c r="J537" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18197,13 +18287,13 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>56.89</v>
       </c>
       <c r="J538" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18238,13 +18328,13 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>56.89</v>
       </c>
       <c r="J539" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18279,13 +18369,13 @@
         <v>-558002.6176720972</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>56.89</v>
       </c>
       <c r="J540" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18320,13 +18410,13 @@
         <v>-561617.5819720972</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>56.92</v>
       </c>
       <c r="J541" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18361,13 +18451,13 @@
         <v>-559544.3879720971</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>56.91</v>
       </c>
       <c r="J542" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -18402,13 +18492,13 @@
         <v>-559544.3879720971</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>56.95</v>
       </c>
       <c r="J543" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -18443,13 +18533,13 @@
         <v>-559544.3879720971</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>56.95</v>
       </c>
       <c r="J544" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -18484,13 +18574,13 @@
         <v>-559544.3879720971</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>56.95</v>
       </c>
       <c r="J545" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -18525,13 +18615,13 @@
         <v>-559544.3879720971</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>56.95</v>
       </c>
       <c r="J546" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -18566,13 +18656,13 @@
         <v>-581840.5483720972</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>56.95</v>
       </c>
       <c r="J547" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -18607,13 +18697,13 @@
         <v>-579372.5313720972</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>56.87</v>
       </c>
       <c r="J548" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -18648,13 +18738,13 @@
         <v>-579372.5313720972</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>56.89</v>
       </c>
       <c r="J549" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -18689,13 +18779,13 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>56.89</v>
       </c>
       <c r="J550" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -18730,13 +18820,13 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>56.9</v>
       </c>
       <c r="J551" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -18771,13 +18861,13 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>56.9</v>
       </c>
       <c r="J552" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -18812,13 +18902,13 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>56.9</v>
       </c>
       <c r="J553" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -18853,13 +18943,13 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>56.9</v>
       </c>
       <c r="J554" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -18894,13 +18984,13 @@
         <v>-574214.2889720972</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>56.9</v>
       </c>
       <c r="J555" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -18935,13 +19025,13 @@
         <v>-592363.0459720972</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>56.92</v>
       </c>
       <c r="J556" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -18976,13 +19066,13 @@
         <v>-587424.8404720972</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>56.9</v>
       </c>
       <c r="J557" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19017,13 +19107,13 @@
         <v>-587424.8404720972</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>56.92</v>
       </c>
       <c r="J558" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19058,13 +19148,13 @@
         <v>-583895.1325720971</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>56.92</v>
       </c>
       <c r="J559" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19099,13 +19189,13 @@
         <v>-617939.0179720972</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>56.94</v>
       </c>
       <c r="J560" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19140,11 +19230,13 @@
         <v>-617156.0891720972</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>56.92</v>
+      </c>
       <c r="J561" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19183,7 +19275,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19222,7 +19314,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19261,7 +19353,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19296,11 +19388,13 @@
         <v>-622859.4879720971</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>57.21</v>
+      </c>
       <c r="J565" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19339,7 +19433,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19378,7 +19472,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19413,13 +19507,11 @@
         <v>-635350.1276720971</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="n">
-        <v>57.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19454,13 +19546,11 @@
         <v>-631681.4705720971</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19495,13 +19585,11 @@
         <v>-631681.4705720971</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="n">
-        <v>57.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19536,13 +19624,11 @@
         <v>-631681.4705720971</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="n">
-        <v>57.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19577,13 +19663,11 @@
         <v>-632958.0246720971</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>57.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19618,13 +19702,11 @@
         <v>-632026.622772097</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>56.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -19659,13 +19741,11 @@
         <v>-628919.385872097</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>56.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -19700,13 +19780,11 @@
         <v>-623099.888972097</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="n">
-        <v>57.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -19741,13 +19819,11 @@
         <v>-623099.888972097</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>57.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -19782,13 +19858,11 @@
         <v>-623099.888972097</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>57.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -19823,13 +19897,11 @@
         <v>-624570.676172097</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>57.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -19864,13 +19936,11 @@
         <v>-623250.379072097</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>57.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -19905,13 +19975,11 @@
         <v>-626431.227172097</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>57.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -19950,7 +20018,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -19989,7 +20057,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20028,7 +20096,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20063,13 +20131,11 @@
         <v>-628044.942472097</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>57.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20108,7 +20174,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20143,13 +20209,11 @@
         <v>-625229.990972097</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>57.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20184,13 +20248,11 @@
         <v>-625229.990972097</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>57.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20225,13 +20287,11 @@
         <v>-628793.682672097</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>57.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20266,13 +20326,13 @@
         <v>-627738.1446720971</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>57.06</v>
       </c>
       <c r="J589" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20307,13 +20367,11 @@
         <v>-629200.260772097</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="n">
-        <v>57.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20352,7 +20410,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20391,7 +20449,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20430,7 +20488,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20469,7 +20527,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20508,7 +20566,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20547,7 +20605,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20586,7 +20644,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20625,7 +20683,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20664,7 +20722,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20703,7 +20761,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20742,7 +20800,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20781,7 +20839,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20820,7 +20878,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20859,7 +20917,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -20898,7 +20956,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -20937,7 +20995,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -20976,7 +21034,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21015,7 +21073,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21054,7 +21112,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21093,7 +21151,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21132,7 +21190,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21171,7 +21229,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21210,7 +21268,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21249,7 +21307,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -21288,7 +21346,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -21327,7 +21385,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21366,7 +21424,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21405,7 +21463,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21444,7 +21502,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -21483,7 +21541,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -21522,7 +21580,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21561,7 +21619,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21600,7 +21658,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21639,7 +21697,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21678,7 +21736,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21717,7 +21775,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21756,7 +21814,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21795,7 +21853,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21834,7 +21892,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21873,7 +21931,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21912,7 +21970,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21951,7 +22009,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21990,7 +22048,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22029,7 +22087,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22068,7 +22126,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22107,7 +22165,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22146,7 +22204,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22185,7 +22243,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22224,7 +22282,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22263,7 +22321,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22302,7 +22360,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22341,7 +22399,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22380,7 +22438,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22419,7 +22477,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22458,7 +22516,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22497,7 +22555,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22536,7 +22594,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22575,7 +22633,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22614,7 +22672,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22653,7 +22711,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22692,7 +22750,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22731,7 +22789,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22770,7 +22828,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22809,7 +22867,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22848,7 +22906,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22887,7 +22945,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22926,7 +22984,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22965,7 +23023,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23004,7 +23062,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23043,7 +23101,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23082,7 +23140,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23121,7 +23179,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23160,7 +23218,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23199,7 +23257,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23238,7 +23296,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23277,7 +23335,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23316,7 +23374,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23355,7 +23413,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23394,7 +23452,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23433,7 +23491,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23472,7 +23530,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23511,7 +23569,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23550,7 +23608,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23589,7 +23647,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23628,7 +23686,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23667,7 +23725,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23706,7 +23764,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23745,7 +23803,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23784,7 +23842,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23823,7 +23881,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23862,7 +23920,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23901,7 +23959,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23940,7 +23998,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23979,7 +24037,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -24018,7 +24076,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -24057,7 +24115,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24096,7 +24154,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -24135,7 +24193,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24174,7 +24232,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24213,7 +24271,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -24252,7 +24310,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -24291,7 +24349,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24330,7 +24388,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24369,7 +24427,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24408,7 +24466,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24447,7 +24505,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24486,7 +24544,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24525,7 +24583,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24564,7 +24622,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24603,7 +24661,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24642,7 +24700,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24681,7 +24739,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24720,7 +24778,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24759,7 +24817,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24798,7 +24856,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24837,7 +24895,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24876,7 +24934,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24915,7 +24973,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24954,7 +25012,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24993,7 +25051,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -25032,7 +25090,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -25071,7 +25129,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -25110,7 +25168,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -25149,7 +25207,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -25188,7 +25246,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -25227,7 +25285,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -25266,7 +25324,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -25305,7 +25363,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -25344,7 +25402,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -25383,7 +25441,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25422,7 +25480,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -25461,7 +25519,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -25500,7 +25558,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -25539,7 +25597,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -25578,7 +25636,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -25617,7 +25675,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -25656,7 +25714,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -25695,7 +25753,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25734,7 +25792,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25773,7 +25831,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25812,7 +25870,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25851,7 +25909,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25890,7 +25948,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25929,7 +25987,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25968,7 +26026,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -26007,7 +26065,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -26046,7 +26104,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -26085,7 +26143,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -26124,7 +26182,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -26163,7 +26221,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -26202,7 +26260,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -26241,7 +26299,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -26280,7 +26338,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -26319,7 +26377,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -26358,7 +26416,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26397,7 +26455,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -26436,7 +26494,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -26475,7 +26533,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26514,7 +26572,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26553,7 +26611,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26592,7 +26650,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26631,7 +26689,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26670,7 +26728,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26709,7 +26767,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26748,7 +26806,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26787,7 +26845,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26826,7 +26884,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -26865,7 +26923,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -26904,7 +26962,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -26943,7 +27001,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -26982,7 +27040,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -27021,7 +27079,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -27060,7 +27118,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -27099,7 +27157,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -27138,7 +27196,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -27177,7 +27235,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -27216,7 +27274,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -27255,7 +27313,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -27294,7 +27352,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -27333,7 +27391,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -27372,7 +27430,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -27411,7 +27469,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -27450,7 +27508,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -27489,7 +27547,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -27528,7 +27586,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -27567,7 +27625,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -27606,7 +27664,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -27645,7 +27703,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -27684,7 +27742,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -27723,7 +27781,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -27762,7 +27820,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -27801,7 +27859,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -27840,7 +27898,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -27879,7 +27937,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -27918,7 +27976,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -27957,7 +28015,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -27996,7 +28054,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -28035,7 +28093,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -28074,7 +28132,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -28113,7 +28171,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -28152,7 +28210,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -28191,7 +28249,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -28230,7 +28288,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -28269,7 +28327,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -28308,7 +28366,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -28347,7 +28405,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -28386,7 +28444,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -28425,7 +28483,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -28464,7 +28522,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -28503,7 +28561,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -28542,7 +28600,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -28581,7 +28639,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -28620,7 +28678,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -28659,7 +28717,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -28698,7 +28756,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -28737,7 +28795,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -28776,7 +28834,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -28815,7 +28873,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -28854,7 +28912,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -28893,7 +28951,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -28932,7 +28990,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -28971,7 +29029,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -29010,7 +29068,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -29049,7 +29107,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -29088,7 +29146,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -29127,7 +29185,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -29166,7 +29224,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -29205,7 +29263,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -29244,7 +29302,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -29283,7 +29341,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -29322,7 +29380,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -29361,7 +29419,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -29400,7 +29458,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -29439,7 +29497,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -29478,7 +29536,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -29517,7 +29575,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -29556,7 +29614,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -29595,7 +29653,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -29634,7 +29692,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -29673,7 +29731,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -29712,7 +29770,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -29751,7 +29809,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -29790,7 +29848,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -29829,7 +29887,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -29868,7 +29926,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -29907,7 +29965,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -29946,7 +30004,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -29985,7 +30043,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -30024,7 +30082,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -30063,7 +30121,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -30102,7 +30160,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -30141,7 +30199,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -30180,7 +30238,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -30219,7 +30277,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -30258,7 +30316,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -30297,7 +30355,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -30336,7 +30394,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -30375,7 +30433,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -30414,7 +30472,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -30453,7 +30511,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -30492,7 +30550,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -30531,7 +30589,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -30570,7 +30628,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -30609,7 +30667,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -30648,7 +30706,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -30687,7 +30745,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -30726,7 +30784,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -30765,7 +30823,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -30804,7 +30862,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -30843,7 +30901,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -30882,7 +30940,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -30921,7 +30979,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -30960,7 +31018,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -30999,7 +31057,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -31038,7 +31096,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -31077,7 +31135,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -31116,7 +31174,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -31155,7 +31213,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -31194,7 +31252,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -31233,7 +31291,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -31272,7 +31330,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -31311,7 +31369,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -31350,7 +31408,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -31389,7 +31447,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -31428,7 +31486,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -31467,7 +31525,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -31506,7 +31564,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -31545,7 +31603,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -31584,7 +31642,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -31623,7 +31681,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -31662,7 +31720,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -31701,7 +31759,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -31740,7 +31798,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -31779,7 +31837,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -31818,7 +31876,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -31857,7 +31915,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -31896,7 +31954,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -31935,7 +31993,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -31974,7 +32032,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -32013,7 +32071,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -32052,7 +32110,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -32091,7 +32149,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -32130,7 +32188,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -32169,7 +32227,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -32208,7 +32266,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -32247,7 +32305,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -32286,7 +32344,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -32325,7 +32383,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -32364,7 +32422,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -32403,7 +32461,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -32442,7 +32500,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -32481,7 +32539,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -32520,7 +32578,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -32559,7 +32617,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -32598,7 +32656,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -32637,7 +32695,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -32676,7 +32734,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -32715,7 +32773,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -32754,7 +32812,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -32793,7 +32851,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -32832,7 +32890,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -32871,7 +32929,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -32910,7 +32968,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -32949,7 +33007,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -32988,7 +33046,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -33027,7 +33085,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -33066,7 +33124,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -33105,7 +33163,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -33144,7 +33202,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -33183,7 +33241,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -33222,7 +33280,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -33261,7 +33319,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -33300,7 +33358,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -33339,7 +33397,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -33378,7 +33436,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -33417,7 +33475,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -33456,7 +33514,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -33495,7 +33553,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -33534,7 +33592,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -33573,7 +33631,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -33612,7 +33670,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -33651,7 +33709,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -33690,7 +33748,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -33729,7 +33787,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -33768,7 +33826,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -33807,7 +33865,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -33846,7 +33904,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -33885,7 +33943,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -33924,7 +33982,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -33963,7 +34021,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -34002,7 +34060,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -34041,7 +34099,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -34080,7 +34138,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -34119,7 +34177,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -34158,7 +34216,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -34197,7 +34255,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -34236,7 +34294,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -34275,7 +34333,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -34314,7 +34372,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -34353,7 +34411,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -34392,7 +34450,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -34431,7 +34489,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -34470,7 +34528,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -34509,7 +34567,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -34548,7 +34606,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -34587,7 +34645,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -34626,7 +34684,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -34665,7 +34723,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -34704,7 +34762,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -34743,7 +34801,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -34782,7 +34840,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -34821,7 +34879,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -34860,7 +34918,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -34899,7 +34957,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -34938,7 +34996,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -34977,7 +35035,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -35016,7 +35074,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -35055,7 +35113,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -35094,7 +35152,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -35133,7 +35191,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -35172,7 +35230,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -35211,7 +35269,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -35250,7 +35308,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
@@ -35289,7 +35347,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K974" t="inlineStr">
         <is>
@@ -35328,7 +35386,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K975" t="inlineStr">
         <is>
@@ -35367,7 +35425,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K976" t="inlineStr">
         <is>
@@ -35406,7 +35464,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K977" t="inlineStr">
         <is>
@@ -35445,7 +35503,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K978" t="inlineStr">
         <is>
@@ -35484,7 +35542,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K979" t="inlineStr">
         <is>
@@ -35523,7 +35581,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K980" t="inlineStr">
         <is>
@@ -35562,7 +35620,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K981" t="inlineStr">
         <is>
@@ -35601,7 +35659,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K982" t="inlineStr">
         <is>
@@ -35640,7 +35698,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -35679,7 +35737,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -35718,7 +35776,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -35757,7 +35815,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -35796,7 +35854,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -35835,7 +35893,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
@@ -35874,7 +35932,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K989" t="inlineStr">
         <is>
@@ -35913,7 +35971,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K990" t="inlineStr">
         <is>
@@ -35952,7 +36010,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K991" t="inlineStr">
         <is>
@@ -35991,7 +36049,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K992" t="inlineStr">
         <is>
@@ -36030,7 +36088,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K993" t="inlineStr">
         <is>
@@ -36069,7 +36127,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K994" t="inlineStr">
         <is>
@@ -36108,7 +36166,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K995" t="inlineStr">
         <is>
@@ -36147,7 +36205,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K996" t="inlineStr">
         <is>
@@ -36186,7 +36244,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K997" t="inlineStr">
         <is>
@@ -36225,7 +36283,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K998" t="inlineStr">
         <is>
@@ -36264,7 +36322,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K999" t="inlineStr">
         <is>
@@ -36303,7 +36361,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
@@ -36342,7 +36400,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
@@ -36381,7 +36439,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1002" t="inlineStr">
         <is>
@@ -36420,7 +36478,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1003" t="inlineStr">
         <is>
@@ -36459,7 +36517,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1004" t="inlineStr">
         <is>
@@ -36498,7 +36556,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1005" t="inlineStr">
         <is>
@@ -36537,7 +36595,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1006" t="inlineStr">
         <is>
@@ -36576,7 +36634,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1007" t="inlineStr">
         <is>
@@ -36615,7 +36673,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1008" t="inlineStr">
         <is>
@@ -36654,7 +36712,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1009" t="inlineStr">
         <is>
@@ -36693,7 +36751,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1010" t="inlineStr">
         <is>
@@ -36732,7 +36790,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1011" t="inlineStr">
         <is>
@@ -36771,7 +36829,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1012" t="inlineStr">
         <is>
@@ -36810,7 +36868,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1013" t="inlineStr">
         <is>
@@ -36849,7 +36907,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1014" t="inlineStr">
         <is>
@@ -36888,7 +36946,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1015" t="inlineStr">
         <is>
@@ -36927,7 +36985,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1016" t="inlineStr">
         <is>
@@ -36966,7 +37024,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1017" t="inlineStr">
         <is>
@@ -37005,7 +37063,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1018" t="inlineStr">
         <is>
@@ -37044,7 +37102,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1019" t="inlineStr">
         <is>
@@ -37083,7 +37141,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1020" t="inlineStr">
         <is>
@@ -37122,7 +37180,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1021" t="inlineStr">
         <is>
@@ -37161,7 +37219,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1022" t="inlineStr">
         <is>
@@ -37200,7 +37258,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1023" t="inlineStr">
         <is>
@@ -37239,7 +37297,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1024" t="inlineStr">
         <is>
@@ -37278,7 +37336,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1025" t="inlineStr">
         <is>
@@ -37317,7 +37375,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1026" t="inlineStr">
         <is>
@@ -37356,7 +37414,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1027" t="inlineStr">
         <is>
@@ -37395,7 +37453,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1028" t="inlineStr">
         <is>
@@ -37434,7 +37492,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1029" t="inlineStr">
         <is>
@@ -37473,7 +37531,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1030" t="inlineStr">
         <is>
@@ -37512,7 +37570,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1031" t="inlineStr">
         <is>
@@ -37551,7 +37609,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1032" t="inlineStr">
         <is>
@@ -37590,7 +37648,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1033" t="inlineStr">
         <is>
@@ -37629,7 +37687,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1034" t="inlineStr">
         <is>
@@ -37668,7 +37726,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1035" t="inlineStr">
         <is>
@@ -37707,7 +37765,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1036" t="inlineStr">
         <is>
@@ -37746,7 +37804,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1037" t="inlineStr">
         <is>
@@ -37785,7 +37843,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1038" t="inlineStr">
         <is>
@@ -37824,7 +37882,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1039" t="inlineStr">
         <is>
@@ -37863,7 +37921,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1040" t="inlineStr">
         <is>
@@ -37902,7 +37960,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1041" t="inlineStr">
         <is>
@@ -37941,7 +37999,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1042" t="inlineStr">
         <is>
@@ -37980,7 +38038,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
@@ -38019,7 +38077,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
@@ -38058,7 +38116,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1045" t="inlineStr">
         <is>
@@ -38097,7 +38155,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1046" t="inlineStr">
         <is>
@@ -38136,7 +38194,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1047" t="inlineStr">
         <is>
@@ -38175,7 +38233,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1048" t="inlineStr">
         <is>
@@ -38214,7 +38272,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1049" t="inlineStr">
         <is>
@@ -38253,7 +38311,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1050" t="inlineStr">
         <is>
@@ -38292,7 +38350,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1051" t="inlineStr">
         <is>
@@ -38331,7 +38389,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1052" t="inlineStr">
         <is>
@@ -38370,7 +38428,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1053" t="inlineStr">
         <is>
@@ -38409,7 +38467,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1054" t="inlineStr">
         <is>
@@ -38448,7 +38506,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1055" t="inlineStr">
         <is>
@@ -38487,7 +38545,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1056" t="inlineStr">
         <is>
@@ -38526,7 +38584,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1057" t="inlineStr">
         <is>
@@ -38565,7 +38623,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1058" t="inlineStr">
         <is>
@@ -38604,7 +38662,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
@@ -38643,7 +38701,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1060" t="inlineStr">
         <is>
@@ -38682,7 +38740,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1061" t="inlineStr">
         <is>
@@ -38721,7 +38779,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1062" t="inlineStr">
         <is>
@@ -38760,7 +38818,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
@@ -38799,7 +38857,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1064" t="inlineStr">
         <is>
@@ -38838,7 +38896,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1065" t="inlineStr">
         <is>
@@ -38877,7 +38935,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
@@ -38916,7 +38974,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
@@ -38955,7 +39013,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
@@ -38994,7 +39052,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1069" t="inlineStr">
         <is>
@@ -39033,7 +39091,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1070" t="inlineStr">
         <is>
@@ -39072,7 +39130,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
@@ -39111,7 +39169,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
@@ -39150,7 +39208,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
@@ -39189,7 +39247,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
@@ -39228,7 +39286,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1075" t="inlineStr">
         <is>
@@ -39267,7 +39325,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1076" t="inlineStr">
         <is>
@@ -39306,7 +39364,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1077" t="inlineStr">
         <is>
@@ -39345,7 +39403,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1078" t="inlineStr">
         <is>
@@ -39384,7 +39442,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1079" t="inlineStr">
         <is>
@@ -39423,7 +39481,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1080" t="inlineStr">
         <is>
@@ -39462,7 +39520,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1081" t="inlineStr">
         <is>
@@ -39501,7 +39559,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1082" t="inlineStr">
         <is>
@@ -39540,7 +39598,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1083" t="inlineStr">
         <is>
@@ -39579,7 +39637,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1084" t="inlineStr">
         <is>
@@ -39618,7 +39676,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1085" t="inlineStr">
         <is>
@@ -39657,7 +39715,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1086" t="inlineStr">
         <is>
@@ -39696,7 +39754,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1087" t="inlineStr">
         <is>
@@ -39735,7 +39793,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1088" t="inlineStr">
         <is>
@@ -39774,7 +39832,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1089" t="inlineStr">
         <is>
@@ -39813,7 +39871,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1090" t="inlineStr">
         <is>
@@ -39852,7 +39910,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1091" t="inlineStr">
         <is>
@@ -39891,7 +39949,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
@@ -39930,7 +39988,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
@@ -39969,7 +40027,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
@@ -40008,7 +40066,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
@@ -40047,7 +40105,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
@@ -40086,7 +40144,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1097" t="inlineStr">
         <is>
@@ -40125,7 +40183,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
@@ -40164,7 +40222,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
@@ -40203,7 +40261,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
@@ -40242,7 +40300,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
@@ -40281,7 +40339,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
@@ -40320,7 +40378,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
@@ -40359,7 +40417,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
@@ -40398,7 +40456,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
@@ -40437,7 +40495,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
@@ -40476,7 +40534,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
@@ -40515,7 +40573,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
@@ -40554,7 +40612,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
@@ -40593,7 +40651,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
@@ -40632,7 +40690,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
@@ -40671,7 +40729,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1112" t="inlineStr">
         <is>
@@ -40710,7 +40768,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
@@ -40749,7 +40807,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
@@ -40788,7 +40846,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
@@ -40827,7 +40885,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1116" t="inlineStr">
         <is>
@@ -40866,7 +40924,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
@@ -40905,7 +40963,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1118" t="inlineStr">
         <is>
@@ -40944,7 +41002,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1119" t="inlineStr">
         <is>
@@ -40983,7 +41041,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
@@ -41022,7 +41080,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
@@ -41061,7 +41119,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
@@ -41100,7 +41158,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
@@ -41139,7 +41197,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
@@ -41178,7 +41236,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1125" t="inlineStr">
         <is>
@@ -41217,7 +41275,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1126" t="inlineStr">
         <is>
@@ -41256,7 +41314,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1127" t="inlineStr">
         <is>
@@ -41295,7 +41353,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
@@ -41334,7 +41392,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -41373,7 +41431,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -41412,7 +41470,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -41451,7 +41509,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -41490,7 +41548,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -41529,7 +41587,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -41568,7 +41626,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -41607,7 +41665,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -41646,7 +41704,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -41685,7 +41743,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -41724,7 +41782,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -41763,7 +41821,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -41802,7 +41860,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -41841,7 +41899,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -41880,7 +41938,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -41919,7 +41977,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -41958,7 +42016,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -41997,7 +42055,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -42036,7 +42094,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -42075,7 +42133,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -42114,7 +42172,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -42153,7 +42211,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -42192,7 +42250,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -42231,7 +42289,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -42270,7 +42328,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -42309,7 +42367,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -42348,7 +42406,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -42387,7 +42445,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -42426,7 +42484,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -42465,7 +42523,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -42504,7 +42562,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -42543,7 +42601,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -42582,7 +42640,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -42621,7 +42679,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -42660,7 +42718,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -42699,7 +42757,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -42738,7 +42796,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -42777,7 +42835,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -42816,7 +42874,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -42855,7 +42913,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -42894,7 +42952,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -42933,7 +42991,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -42972,7 +43030,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -43011,7 +43069,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -43050,7 +43108,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -43089,7 +43147,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -43128,7 +43186,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -43167,7 +43225,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -43206,7 +43264,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -43245,7 +43303,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -43284,7 +43342,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -43323,7 +43381,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -43362,7 +43420,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -43401,7 +43459,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -43440,7 +43498,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -43479,7 +43537,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -43518,7 +43576,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -43557,7 +43615,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -43596,7 +43654,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -43635,7 +43693,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -43674,7 +43732,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -43713,7 +43771,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -43752,7 +43810,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -43791,7 +43849,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -43830,7 +43888,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -43869,7 +43927,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -43908,7 +43966,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -43947,7 +44005,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -43986,7 +44044,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -44025,7 +44083,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -44064,7 +44122,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -44103,7 +44161,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -44142,7 +44200,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -44181,7 +44239,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -44220,7 +44278,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -44259,7 +44317,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -44298,7 +44356,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -44337,7 +44395,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -44376,7 +44434,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -44415,7 +44473,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -44454,7 +44512,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -44493,7 +44551,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -44532,7 +44590,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -44571,7 +44629,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -44610,7 +44668,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -44649,7 +44707,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -44688,7 +44746,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -44727,7 +44785,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -44766,7 +44824,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -44805,7 +44863,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -44844,7 +44902,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -44883,7 +44941,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -44922,7 +44980,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -44961,7 +45019,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -45000,7 +45058,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -45039,7 +45097,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -45078,7 +45136,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -45117,7 +45175,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -45156,7 +45214,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -45195,7 +45253,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -45234,7 +45292,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -45273,7 +45331,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -45312,7 +45370,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -45351,7 +45409,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -45390,7 +45448,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -45429,7 +45487,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -45468,7 +45526,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -45507,7 +45565,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -45546,7 +45604,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -45585,7 +45643,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -45624,7 +45682,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -45663,7 +45721,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -45702,7 +45760,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -45741,7 +45799,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -45780,7 +45838,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -45819,7 +45877,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -45858,7 +45916,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -45897,7 +45955,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -45936,7 +45994,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
@@ -45975,7 +46033,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
@@ -46014,7 +46072,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1249" t="inlineStr">
         <is>
@@ -46053,7 +46111,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1250" t="inlineStr">
         <is>
@@ -46092,7 +46150,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1251" t="inlineStr">
         <is>
@@ -46131,7 +46189,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1252" t="inlineStr">
         <is>
@@ -46170,7 +46228,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -46209,7 +46267,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -46248,7 +46306,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -46287,7 +46345,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -46326,7 +46384,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -46365,7 +46423,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -46404,7 +46462,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -46443,7 +46501,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -46482,7 +46540,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -46521,7 +46579,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -46560,7 +46618,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -46599,7 +46657,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -46638,7 +46696,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -46677,7 +46735,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -46716,7 +46774,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -46755,7 +46813,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -46794,7 +46852,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -46833,7 +46891,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -46872,7 +46930,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -46911,7 +46969,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -46950,7 +47008,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -46989,7 +47047,7 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -47028,7 +47086,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -47067,7 +47125,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -47106,7 +47164,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -47145,7 +47203,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -47184,7 +47242,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -47223,7 +47281,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -47262,7 +47320,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -47301,7 +47359,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -47340,7 +47398,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -47379,7 +47437,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -47418,7 +47476,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1285" t="inlineStr">
         <is>
@@ -47457,7 +47515,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1286" t="inlineStr">
         <is>
@@ -47496,7 +47554,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1287" t="inlineStr">
         <is>
@@ -47535,7 +47593,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1288" t="inlineStr">
         <is>
@@ -47574,7 +47632,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1289" t="inlineStr">
         <is>
@@ -47613,7 +47671,7 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1290" t="inlineStr">
         <is>
@@ -47652,7 +47710,7 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1291" t="inlineStr">
         <is>
@@ -47691,7 +47749,7 @@
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1292" t="inlineStr">
         <is>
@@ -47730,7 +47788,7 @@
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1293" t="inlineStr">
         <is>
@@ -47769,7 +47827,7 @@
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1294" t="inlineStr">
         <is>
@@ -47808,7 +47866,7 @@
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1295" t="inlineStr">
         <is>
@@ -47847,7 +47905,7 @@
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1296" t="inlineStr">
         <is>
@@ -47886,7 +47944,7 @@
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1297" t="inlineStr">
         <is>
@@ -47925,7 +47983,7 @@
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1298" t="inlineStr">
         <is>
@@ -47964,7 +48022,7 @@
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1299" t="inlineStr">
         <is>
@@ -48003,7 +48061,7 @@
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1300" t="inlineStr">
         <is>
@@ -48042,7 +48100,7 @@
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1301" t="inlineStr">
         <is>
@@ -48081,7 +48139,7 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1302" t="inlineStr">
         <is>
@@ -48120,7 +48178,7 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1303" t="inlineStr">
         <is>
@@ -48159,7 +48217,7 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1304" t="inlineStr">
         <is>
@@ -48198,7 +48256,7 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1305" t="inlineStr">
         <is>
@@ -48237,7 +48295,7 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1306" t="inlineStr">
         <is>
@@ -48276,7 +48334,7 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1307" t="inlineStr">
         <is>
@@ -48315,7 +48373,7 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1308" t="inlineStr">
         <is>
@@ -48354,7 +48412,7 @@
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1309" t="inlineStr">
         <is>
@@ -48393,7 +48451,7 @@
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1310" t="inlineStr">
         <is>
@@ -48432,7 +48490,7 @@
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1311" t="inlineStr">
         <is>
@@ -48471,7 +48529,7 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1312" t="inlineStr">
         <is>
@@ -48510,7 +48568,7 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1313" t="inlineStr">
         <is>
@@ -48549,7 +48607,7 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1314" t="inlineStr">
         <is>
@@ -48588,7 +48646,7 @@
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1315" t="inlineStr">
         <is>
@@ -48627,7 +48685,7 @@
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1316" t="inlineStr">
         <is>
@@ -48666,7 +48724,7 @@
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1317" t="inlineStr">
         <is>
@@ -48705,7 +48763,7 @@
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1318" t="inlineStr">
         <is>
@@ -48744,7 +48802,7 @@
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1319" t="inlineStr">
         <is>
@@ -48783,7 +48841,7 @@
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1320" t="inlineStr">
         <is>
@@ -48822,7 +48880,7 @@
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1321" t="inlineStr">
         <is>
@@ -48861,7 +48919,7 @@
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="n">
-        <v>56.86</v>
+        <v>56.98</v>
       </c>
       <c r="K1322" t="inlineStr">
         <is>
@@ -48874,6 +48932,6 @@
       <c r="M1322" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>